--- a/medicine/Mort/Paysage_avec_l'enterrement_de_sainte_Séraphie/Paysage_avec_l'enterrement_de_sainte_Séraphie.xlsx
+++ b/medicine/Mort/Paysage_avec_l'enterrement_de_sainte_Séraphie/Paysage_avec_l'enterrement_de_sainte_Séraphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paysage_avec_l%27enterrement_de_sainte_S%C3%A9raphie</t>
+          <t>Paysage_avec_l'enterrement_de_sainte_Séraphie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paysage avec l’enterrement de sainte Séraphie est un tableau peint à l'huile sur toile réalisé en 1639-1640 par le peintre français du baroque Claude Lorrain pour le palais du Buen Retiro par commission de Philippe IV. Il est conservé actuellement au musée du Prado à Madrid.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paysage_avec_l%27enterrement_de_sainte_S%C3%A9raphie</t>
+          <t>Paysage_avec_l'enterrement_de_sainte_Séraphie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Commande de Philippe IV pour décorer le palais du Buen Retiro (en particulier pour la Galerie des Paysages), cette œuvre fait partie d’une série picturale à laquelle ont également participé d’autres grands peintres de l’époque, dont Nicolas Poussin, Herman van Swanevelt, Jan Both, Gaspard Dughet et Jean Lemaire. Elle passe de la collection royale au musée du Prado de Madrid, où elle est actuellement conservée (no  de catalogue 2252). 
 Lorraine a réalisé huit tableaux monumentaux pour le palais du Buen Retiro, en deux groupes : quatre de format longitudinal (en 1635-38: Paysage avec la tentation de saint Antoine, Paysage avec saint Onuphre, Paysage avec sainte María de Cervelló et une oeuvre inconnue) et quatre de format vertical (en 1639-41: Paysage avec Tobie et Raphaël, Le Port d'Ostie avec l'embarquement de sainte Paule, Paysage avec Moïse sauvé des eaux du Nil, Paysage avec l’enterrement de sainte Séraphie). Le programme iconographique, inspiré de la Bible et de La Légende dorée, a été choisi par Gaspar de Guzmán, comte-duc d'Olivares, qui dirige les travaux.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paysage_avec_l%27enterrement_de_sainte_S%C3%A9raphie</t>
+          <t>Paysage_avec_l'enterrement_de_sainte_Séraphie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’une peinture religieuse : sainte Séraphie est servante de sainte Sabine, une Romaine d’origine, qu’elle convertit au christianisme, fait par lequel elles sont martyrisées sous le règne d’Hadrien. Ce fait s’est produit dans la ville de Vindena, qui, bien que proche de Terni, au XVIIIe siècle, au moment de la réalisation du tableau, est supposée correspondre à l’Aventin, l’une des sept collines de Rome : c’est pourquoi l'église Santa Sabina de Rome a été construite à cet endroit.
 Dans le tableau, sur le couvercle du sarcophage, figure l’inscription SEPVLTVRA.S.SABIN (a)... SEPELIR(e) IVBET.C.SANCTAE SERAPI(ae).
